--- a/docs/JiraTest.xlsx
+++ b/docs/JiraTest.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Project</t>
   </si>
@@ -53,15 +53,9 @@
     <t>Success</t>
   </si>
   <si>
-    <t>SubTaskCount</t>
-  </si>
-  <si>
     <t>IsSubTask</t>
   </si>
   <si>
-    <t>SubTaskList</t>
-  </si>
-  <si>
     <t>CustomFieldInput</t>
   </si>
   <si>
@@ -105,6 +99,27 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+  <si>
+    <t>ExpectedSubTaskCount</t>
+  </si>
+  <si>
+    <t>ExpectedSubTaskList</t>
+  </si>
+  <si>
+    <t>ExpectedStatus</t>
+  </si>
+  <si>
+    <t>IN PROGRESS</t>
+  </si>
+  <si>
+    <t>RESOURCE REQUEST-1 COMPLETED</t>
+  </si>
+  <si>
+    <t>Open</t>
   </si>
 </sst>
 </file>
@@ -422,33 +437,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" customWidth="1"/>
-    <col min="2" max="2" width="12.7265625" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="4" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="24.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="40.54296875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="40.54296875" customWidth="1"/>
-    <col min="9" max="9" width="17.26953125" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="85.54296875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="40.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.5703125" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" customWidth="1"/>
+    <col min="10" max="10" width="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="85.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -460,31 +476,34 @@
         <v>6</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
-        <v>14</v>
-      </c>
       <c r="H1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
         <v>2</v>
       </c>
       <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>4</v>
       </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
       <c r="L1" t="s">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="M1" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="N1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -492,7 +511,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -500,99 +519,143 @@
       <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
       <c r="I2" t="s">
         <v>3</v>
       </c>
-      <c r="J2" t="s">
-        <v>8</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="M2" t="s">
-        <v>16</v>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
       </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
       <c r="G3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="I3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3" t="s">
         <v>8</v>
       </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>8</v>
+      </c>
+      <c r="L4" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>21</v>
       </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
         <v>8</v>
       </c>
-      <c r="K4">
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5">
         <v>0</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
